--- a/medicine/Enfance/Melinda_Metz/Melinda_Metz.xlsx
+++ b/medicine/Enfance/Melinda_Metz/Melinda_Metz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melinda Metz est auteur américaine de romans pour jeunes adultes. 
 Sa série de livres Roswell High (en), qui parlent d'adolescents extraterrestres, est à la base de la série télévisée Roswell (série télévisée) de la chaîne The WB et de la série télévisée Roswell, New Mexico (série télévisée) de la même chaîne. 
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Roswell High
-Roswell High est une série de romans pour jeunes adultes écrit par Melinda Metz et publié par Pocket Books (en). La série de 10 livres retrace les aventures de trois adolescents extraterrestres et de leurs amis humains, qui vont à la fictive Ulysses F. Olsen High à Roswell, au Nouveau-Mexique. La série de livres Roswell High (série littéraire) ont été une source d'inspiration pour Roswell (série télévisée) (1999-2002), également connue sous le nom de Roswell High dans certains pays, qui a elle-même engendré un certain nombre de romans dérivés. La deuxième adaptation était une nouvelle conception de la série télévisée Roswell, New Mexico (série télévisée).
+          <t>Roswell High</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Roswell High est une série de romans pour jeunes adultes écrit par Melinda Metz et publié par Pocket Books (en). La série de 10 livres retrace les aventures de trois adolescents extraterrestres et de leurs amis humains, qui vont à la fictive Ulysses F. Olsen High à Roswell, au Nouveau-Mexique. La série de livres Roswell High (série littéraire) ont été une source d'inspiration pour Roswell (série télévisée) (1999-2002), également connue sous le nom de Roswell High dans certains pays, qui a elle-même engendré un certain nombre de romans dérivés. La deuxième adaptation était une nouvelle conception de la série télévisée Roswell, New Mexico (série télévisée).
 Liste de livres
 La révélation (The Outsider)
 L'intrus (The Wild One)
@@ -528,9 +545,43 @@
 La pierre de minuit (The Vanished)
 Le rebelle (The Rebel)
 Le renégat (The Dark One)
-Nouveau départ (The Salvation)
-Fingerprints
-Fingerprints est une série de livres portant sur la lycéenne Rachel Rae Voight qui développe une capacité psychique, quand elle touche une empreinte digitale, elle peut entendre la pensée de la personne. Lorsque Rae découvre que quelqu'un veut la tuer, elle doit découvrir des faits sur son passé pour se protéger. Elle possède l'aide de ses amis; Anthony, qui connaît ses mystérieuses capacités, et Yana, qui ne pose pas de questions embarrassantes.
+Nouveau départ (The Salvation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Melinda_Metz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melinda_Metz</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fingerprints</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fingerprints est une série de livres portant sur la lycéenne Rachel Rae Voight qui développe une capacité psychique, quand elle touche une empreinte digitale, elle peut entendre la pensée de la personne. Lorsque Rae découvre que quelqu'un veut la tuer, elle doit découvrir des faits sur son passé pour se protéger. Elle possède l'aide de ses amis; Anthony, qui connaît ses mystérieuses capacités, et Yana, qui ne pose pas de questions embarrassantes.
 Liste de livres
 Titre français inconnu (Gifted Touch)
 Titre français inconnu (Haunted)
@@ -538,14 +589,86 @@
 Titre français inconnu (Secrets)
 Titre français inconnu (Betrayed)
 Titre français inconnu (Revelations)
-Titre français inconnu (Payback)
-Autres
-Animorphs Tome 29 : L'épidémie (Auteur fantôme) (1999)
+Titre français inconnu (Payback)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Melinda_Metz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melinda_Metz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Animorphs Tome 29 : L'épidémie (Auteur fantôme) (1999)
 Animorphs - Tome 34 : La prophétie (Auteur fantôme) (1999)
 Titre français inconnu (Case of the Creepy Castle) (2000)
-Titre français inconnu (Raven's Point) (2004)
-Avec Laura J. Burns
-Abomination, Beauport, Brittany, France, 1320 dans Tales of the Slayer, Vol. 2 (2003)
+Titre français inconnu (Raven's Point) (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Melinda_Metz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melinda_Metz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Avec Laura J. Burns</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abomination, Beauport, Brittany, France, 1320 dans Tales of the Slayer, Vol. 2 (2003)
 Buffy contre les vampires : Souvenirs d'Apocalypse (2004)
 Buffy contre les vampires : Colony (2005)
 Titre français inconnu (Everwood: First Impressions)(2004)
